--- a/data/spring-cloud-shop/shop-cart-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-cart-api_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="160">
   <si>
     <t>Class Name</t>
   </si>
@@ -297,21 +297,21 @@
     <t>orderCartService</t>
   </si>
   <si>
+    <t>skuId</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
     <t>sellerId</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>skuId</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -327,15 +327,15 @@
     <t>cartService</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
     <t>goodsSkuClient</t>
   </si>
   <si>
     <t>quick.pager.shop.goods.client.GoodsSkuClient</t>
   </si>
   <si>
-    <t>env</t>
-  </si>
-  <si>
     <t>redissonClient</t>
   </si>
   <si>
@@ -345,10 +345,10 @@
     <t>goodsCartMapper</t>
   </si>
   <si>
+    <t>userOrderId</t>
+  </si>
+  <si>
     <t>discountAmount</t>
-  </si>
-  <si>
-    <t>userOrderId</t>
   </si>
   <si>
     <t>sellerOrderId</t>
@@ -2600,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2677,21 +2677,21 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -2699,7 +2699,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>139</v>
@@ -2710,10 +2710,10 @@
         <v>81</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
@@ -2721,7 +2721,7 @@
         <v>81</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>139</v>
@@ -2732,7 +2732,7 @@
         <v>81</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>139</v>
@@ -2743,7 +2743,7 @@
         <v>81</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>139</v>
@@ -2751,35 +2751,35 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -2787,10 +2787,10 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +2798,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>141</v>
@@ -2809,10 +2809,10 @@
         <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -2820,10 +2820,10 @@
         <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
@@ -2831,7 +2831,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>141</v>
@@ -2842,7 +2842,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>141</v>
@@ -2853,7 +2853,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>141</v>
@@ -2864,7 +2864,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>141</v>
@@ -2875,7 +2875,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>141</v>
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>141</v>
@@ -2894,68 +2894,68 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
@@ -2963,10 +2963,10 @@
         <v>84</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
@@ -2974,54 +2974,54 @@
         <v>84</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
@@ -3029,10 +3029,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
@@ -3040,10 +3040,10 @@
         <v>54</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41">
@@ -3051,10 +3051,10 @@
         <v>54</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
@@ -3062,10 +3062,10 @@
         <v>54</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -3073,10 +3073,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -3084,10 +3084,10 @@
         <v>54</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45">
@@ -3095,10 +3095,10 @@
         <v>54</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
@@ -3106,7 +3106,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>139</v>
@@ -3117,7 +3117,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>139</v>
@@ -3128,7 +3128,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>139</v>
@@ -3139,7 +3139,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>139</v>
@@ -3147,46 +3147,46 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54">
@@ -3194,10 +3194,10 @@
         <v>67</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55">
@@ -3205,7 +3205,7 @@
         <v>67</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>141</v>
@@ -3216,10 +3216,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57">
@@ -3227,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
@@ -3238,7 +3238,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>141</v>
@@ -3249,7 +3249,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>141</v>
@@ -3260,7 +3260,7 @@
         <v>67</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>141</v>
@@ -3271,7 +3271,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>141</v>
@@ -3282,7 +3282,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>141</v>
@@ -3293,7 +3293,7 @@
         <v>67</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>141</v>
@@ -3304,7 +3304,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>141</v>
@@ -3315,7 +3315,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>141</v>
@@ -3326,7 +3326,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>141</v>
@@ -3337,7 +3337,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>141</v>
@@ -3348,7 +3348,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>141</v>
@@ -3359,9 +3359,64 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C69" t="s" s="0">
+      <c r="C74" t="s" s="0">
         <v>141</v>
       </c>
     </row>
@@ -3822,7 +3877,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -3830,13 +3885,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -3920,7 +3975,7 @@
         <v>52</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -3942,13 +3997,13 @@
         <v>54</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -3984,13 +4039,13 @@
         <v>67</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -3998,7 +4053,7 @@
         <v>67</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>52</v>
@@ -4012,7 +4067,7 @@
         <v>67</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>52</v>
@@ -4026,7 +4081,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>52</v>
@@ -4040,13 +4095,13 @@
         <v>67</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -4054,13 +4109,13 @@
         <v>67</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -4068,13 +4123,13 @@
         <v>67</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -4082,7 +4137,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>52</v>
@@ -4096,13 +4151,13 @@
         <v>67</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>52</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
